--- a/data/pca/factorExposure/factorExposure_2016-08-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01029707551096744</v>
+        <v>0.01318638908856095</v>
       </c>
       <c r="C2">
-        <v>-0.05379780300215922</v>
+        <v>0.04289702678999915</v>
       </c>
       <c r="D2">
-        <v>-0.03903583027217823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06226803562851833</v>
+      </c>
+      <c r="E2">
+        <v>-0.0701512383403021</v>
+      </c>
+      <c r="F2">
+        <v>0.06681588050925938</v>
+      </c>
+      <c r="G2">
+        <v>0.03391070724946629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05528351462565422</v>
+        <v>0.02916329899979001</v>
       </c>
       <c r="C3">
-        <v>-0.09425051181765282</v>
+        <v>0.07910170827860262</v>
       </c>
       <c r="D3">
-        <v>-0.1026410280470959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09044522330764687</v>
+      </c>
+      <c r="E3">
+        <v>-0.07109148518700981</v>
+      </c>
+      <c r="F3">
+        <v>-0.007141593273507196</v>
+      </c>
+      <c r="G3">
+        <v>-0.04055818095078538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06659093780415674</v>
+        <v>0.05769046615431438</v>
       </c>
       <c r="C4">
-        <v>-0.0597714209985744</v>
+        <v>0.06662379858225738</v>
       </c>
       <c r="D4">
-        <v>-0.02767756375299201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05865393251603154</v>
+      </c>
+      <c r="E4">
+        <v>-0.07117842810944737</v>
+      </c>
+      <c r="F4">
+        <v>0.07564231459696016</v>
+      </c>
+      <c r="G4">
+        <v>-0.04070987923542555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04118634038232313</v>
+        <v>0.03528320945469897</v>
       </c>
       <c r="C6">
-        <v>-0.03766438162647755</v>
+        <v>0.03182851815772081</v>
       </c>
       <c r="D6">
-        <v>-0.03031094950274139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06270297996078719</v>
+      </c>
+      <c r="E6">
+        <v>-0.07482503327372628</v>
+      </c>
+      <c r="F6">
+        <v>0.05690838303778958</v>
+      </c>
+      <c r="G6">
+        <v>-0.02368239630497531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0224508431756282</v>
+        <v>0.0184193952682134</v>
       </c>
       <c r="C7">
-        <v>-0.04383201722294752</v>
+        <v>0.03936916725959207</v>
       </c>
       <c r="D7">
-        <v>0.006645803154496446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03670943306581086</v>
+      </c>
+      <c r="E7">
+        <v>-0.05022051789831213</v>
+      </c>
+      <c r="F7">
+        <v>0.09876730451820563</v>
+      </c>
+      <c r="G7">
+        <v>-0.01068477815649279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003133968176426292</v>
+        <v>0.003144408001512272</v>
       </c>
       <c r="C8">
-        <v>-0.02738108528097917</v>
+        <v>0.02929811299732976</v>
       </c>
       <c r="D8">
-        <v>-0.03028156768162753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03059741868681644</v>
+      </c>
+      <c r="E8">
+        <v>-0.0511714199054557</v>
+      </c>
+      <c r="F8">
+        <v>0.03669913509687419</v>
+      </c>
+      <c r="G8">
+        <v>-0.01040669689602475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03640534754066602</v>
+        <v>0.03636325920956038</v>
       </c>
       <c r="C9">
-        <v>-0.04447216051343176</v>
+        <v>0.05291840595675903</v>
       </c>
       <c r="D9">
-        <v>-0.01454664662123299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0425470401418938</v>
+      </c>
+      <c r="E9">
+        <v>-0.05895819910072847</v>
+      </c>
+      <c r="F9">
+        <v>0.08334913857703408</v>
+      </c>
+      <c r="G9">
+        <v>-0.02548256403566307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0721578442124388</v>
+        <v>0.1002232329385999</v>
       </c>
       <c r="C10">
-        <v>0.1991632648566621</v>
+        <v>-0.1955719773522757</v>
       </c>
       <c r="D10">
-        <v>0.01176888104156682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.006162073490240574</v>
+      </c>
+      <c r="E10">
+        <v>-0.04377888425402531</v>
+      </c>
+      <c r="F10">
+        <v>0.03847339975207709</v>
+      </c>
+      <c r="G10">
+        <v>-0.01021364628982945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04211392424064572</v>
+        <v>0.03629455234156057</v>
       </c>
       <c r="C11">
-        <v>-0.05457339013217206</v>
+        <v>0.0519072560307804</v>
       </c>
       <c r="D11">
-        <v>-0.01271977659523132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03355577445326541</v>
+      </c>
+      <c r="E11">
+        <v>-0.01728474454737388</v>
+      </c>
+      <c r="F11">
+        <v>0.06425078972500491</v>
+      </c>
+      <c r="G11">
+        <v>-0.01689804382905527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04185237783587223</v>
+        <v>0.03709975876229439</v>
       </c>
       <c r="C12">
-        <v>-0.04874228307523861</v>
+        <v>0.04793950089021009</v>
       </c>
       <c r="D12">
-        <v>-0.0008898110899900623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02511516589458481</v>
+      </c>
+      <c r="E12">
+        <v>-0.02481055929580056</v>
+      </c>
+      <c r="F12">
+        <v>0.06592742466276037</v>
+      </c>
+      <c r="G12">
+        <v>-0.01392644127301937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0166136319632879</v>
+        <v>0.01230703143292641</v>
       </c>
       <c r="C13">
-        <v>-0.0505315737010968</v>
+        <v>0.04370180710326996</v>
       </c>
       <c r="D13">
-        <v>-0.02159467701529391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05939205954433265</v>
+      </c>
+      <c r="E13">
+        <v>-0.08443149985989594</v>
+      </c>
+      <c r="F13">
+        <v>0.09738635828634916</v>
+      </c>
+      <c r="G13">
+        <v>-0.02204933317134704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007600440909498079</v>
+        <v>0.004616669068543435</v>
       </c>
       <c r="C14">
-        <v>-0.0349270664672742</v>
+        <v>0.03198970973536638</v>
       </c>
       <c r="D14">
-        <v>0.01430376510691589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02512860947182839</v>
+      </c>
+      <c r="E14">
+        <v>-0.03937089611698488</v>
+      </c>
+      <c r="F14">
+        <v>0.09526022468506198</v>
+      </c>
+      <c r="G14">
+        <v>0.004317760901464987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0006880724671130793</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005600813496108546</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006467737570575979</v>
+      </c>
+      <c r="E15">
+        <v>-0.001844574483665277</v>
+      </c>
+      <c r="F15">
+        <v>0.004280804918961417</v>
+      </c>
+      <c r="G15">
+        <v>-0.0004133001187350812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03868489778759068</v>
+        <v>0.03377234533937658</v>
       </c>
       <c r="C16">
-        <v>-0.04668341272887488</v>
+        <v>0.04586824764239379</v>
       </c>
       <c r="D16">
-        <v>-0.006499466640700185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02672075985628753</v>
+      </c>
+      <c r="E16">
+        <v>-0.03173325290600455</v>
+      </c>
+      <c r="F16">
+        <v>0.06676943601190803</v>
+      </c>
+      <c r="G16">
+        <v>-0.003205215898582154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02518524561441374</v>
+        <v>0.01624285837752068</v>
       </c>
       <c r="C19">
-        <v>-0.06364947304921643</v>
+        <v>0.05082317239198342</v>
       </c>
       <c r="D19">
-        <v>-0.07626469771431889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0895394838344445</v>
+      </c>
+      <c r="E19">
+        <v>-0.100272364307394</v>
+      </c>
+      <c r="F19">
+        <v>0.07399852223185789</v>
+      </c>
+      <c r="G19">
+        <v>0.02037242008971941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01820649986182156</v>
+        <v>0.01335638954892931</v>
       </c>
       <c r="C20">
-        <v>-0.04471415763966656</v>
+        <v>0.04134954755656636</v>
       </c>
       <c r="D20">
-        <v>-0.01562848695294381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03638367799824893</v>
+      </c>
+      <c r="E20">
+        <v>-0.07030194331518581</v>
+      </c>
+      <c r="F20">
+        <v>0.07807813764651581</v>
+      </c>
+      <c r="G20">
+        <v>-0.007191923047105229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0129823859628918</v>
+        <v>0.009062995109976985</v>
       </c>
       <c r="C21">
-        <v>-0.04872898042114148</v>
+        <v>0.04569202879185025</v>
       </c>
       <c r="D21">
-        <v>-0.03752219467869431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06593070332208176</v>
+      </c>
+      <c r="E21">
+        <v>-0.09893074451477478</v>
+      </c>
+      <c r="F21">
+        <v>0.1205242951155559</v>
+      </c>
+      <c r="G21">
+        <v>-0.01129067238270245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001990746116250027</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02362238082113131</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0360205326233428</v>
+      </c>
+      <c r="E22">
+        <v>-0.02863531707945097</v>
+      </c>
+      <c r="F22">
+        <v>0.014403624790838</v>
+      </c>
+      <c r="G22">
+        <v>-0.03949528628613352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002060657710817434</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02374992920015536</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03567616328441797</v>
+      </c>
+      <c r="E23">
+        <v>-0.02889094706721282</v>
+      </c>
+      <c r="F23">
+        <v>0.01421007818997119</v>
+      </c>
+      <c r="G23">
+        <v>-0.03968936067494121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03426458640594341</v>
+        <v>0.03346413347534619</v>
       </c>
       <c r="C24">
-        <v>-0.05053623652577559</v>
+        <v>0.05382793057063363</v>
       </c>
       <c r="D24">
-        <v>-0.005850973521666821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02589933766271503</v>
+      </c>
+      <c r="E24">
+        <v>-0.02895504393936517</v>
+      </c>
+      <c r="F24">
+        <v>0.07520531195418856</v>
+      </c>
+      <c r="G24">
+        <v>-0.01114421701087461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04842404793896267</v>
+        <v>0.04379061483504935</v>
       </c>
       <c r="C25">
-        <v>-0.06041818477350982</v>
+        <v>0.05719857652346432</v>
       </c>
       <c r="D25">
-        <v>0.003235469663692693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02438466565266429</v>
+      </c>
+      <c r="E25">
+        <v>-0.02353013569209729</v>
+      </c>
+      <c r="F25">
+        <v>0.07709747106543087</v>
+      </c>
+      <c r="G25">
+        <v>-0.02819698712877136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01590902526796366</v>
+        <v>0.01377294844320084</v>
       </c>
       <c r="C26">
-        <v>-0.0156712754397764</v>
+        <v>0.01732312771030017</v>
       </c>
       <c r="D26">
-        <v>0.001440645133972023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02378357900927067</v>
+      </c>
+      <c r="E26">
+        <v>-0.04043433602842955</v>
+      </c>
+      <c r="F26">
+        <v>0.06767689689678634</v>
+      </c>
+      <c r="G26">
+        <v>0.01247330254006582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08407376638977038</v>
+        <v>0.1349548616293473</v>
       </c>
       <c r="C28">
-        <v>0.2352822079100171</v>
+        <v>-0.2455995711858032</v>
       </c>
       <c r="D28">
-        <v>0.01060649722406657</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02116378645947409</v>
+      </c>
+      <c r="E28">
+        <v>-0.04689541214120672</v>
+      </c>
+      <c r="F28">
+        <v>0.05710735051319923</v>
+      </c>
+      <c r="G28">
+        <v>-0.02417016661283368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009152765235119325</v>
+        <v>0.005728887747333222</v>
       </c>
       <c r="C29">
-        <v>-0.02802984458259495</v>
+        <v>0.02748846912669907</v>
       </c>
       <c r="D29">
-        <v>0.01926598978653463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01912004288133176</v>
+      </c>
+      <c r="E29">
+        <v>-0.03974672078068633</v>
+      </c>
+      <c r="F29">
+        <v>0.0885867592385685</v>
+      </c>
+      <c r="G29">
+        <v>-0.008080288422717413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.05275521211133703</v>
+        <v>0.04171254372606762</v>
       </c>
       <c r="C30">
-        <v>-0.05893067421068036</v>
+        <v>0.06396871705220022</v>
       </c>
       <c r="D30">
-        <v>-0.07028248197293112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1065104275088872</v>
+      </c>
+      <c r="E30">
+        <v>-0.06531374207268445</v>
+      </c>
+      <c r="F30">
+        <v>0.09159695153593533</v>
+      </c>
+      <c r="G30">
+        <v>0.01096827725204849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05419083220380273</v>
+        <v>0.05473651146913702</v>
       </c>
       <c r="C31">
-        <v>-0.03499385064535639</v>
+        <v>0.05582148886425231</v>
       </c>
       <c r="D31">
-        <v>0.03025598998097926</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01320332784178812</v>
+      </c>
+      <c r="E31">
+        <v>-0.05943090279937539</v>
+      </c>
+      <c r="F31">
+        <v>0.07111665003008219</v>
+      </c>
+      <c r="G31">
+        <v>-0.04966790765330636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002380618384310876</v>
+        <v>0.004931773266972066</v>
       </c>
       <c r="C32">
-        <v>-0.04364122342733553</v>
+        <v>0.03458135140284877</v>
       </c>
       <c r="D32">
-        <v>-0.04165954845519924</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0508573995057784</v>
+      </c>
+      <c r="E32">
+        <v>-0.04118779345615407</v>
+      </c>
+      <c r="F32">
+        <v>0.06424798022087955</v>
+      </c>
+      <c r="G32">
+        <v>0.008925679178325209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02884024051240192</v>
+        <v>0.02443359266890123</v>
       </c>
       <c r="C33">
-        <v>-0.06162315779841858</v>
+        <v>0.05547186379268482</v>
       </c>
       <c r="D33">
-        <v>-0.04269690185504896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07658482573501629</v>
+      </c>
+      <c r="E33">
+        <v>-0.07347010990018522</v>
+      </c>
+      <c r="F33">
+        <v>0.1168422049692348</v>
+      </c>
+      <c r="G33">
+        <v>-0.02468275201427346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04632537474085589</v>
+        <v>0.04087503981437285</v>
       </c>
       <c r="C34">
-        <v>-0.06552741212431502</v>
+        <v>0.06423805635419244</v>
       </c>
       <c r="D34">
-        <v>-0.008287048403595083</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03356680066022229</v>
+      </c>
+      <c r="E34">
+        <v>-0.004071537868257329</v>
+      </c>
+      <c r="F34">
+        <v>0.07776780552615234</v>
+      </c>
+      <c r="G34">
+        <v>-0.01317033598306874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01346767212652545</v>
+        <v>0.0130128891091358</v>
       </c>
       <c r="C36">
-        <v>-0.01717243408076038</v>
+        <v>0.01316860437814196</v>
       </c>
       <c r="D36">
-        <v>0.003749487551979407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02534981926912684</v>
+      </c>
+      <c r="E36">
+        <v>-0.04719574830179753</v>
+      </c>
+      <c r="F36">
+        <v>0.0740699227995307</v>
+      </c>
+      <c r="G36">
+        <v>-0.01132115264663844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03078470193405029</v>
+        <v>0.02401654700107635</v>
       </c>
       <c r="C38">
-        <v>-0.02903065516223362</v>
+        <v>0.02505077414806662</v>
       </c>
       <c r="D38">
-        <v>0.007173006117791282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02458535814287763</v>
+      </c>
+      <c r="E38">
+        <v>-0.04546529176956882</v>
+      </c>
+      <c r="F38">
+        <v>0.06225722493416094</v>
+      </c>
+      <c r="G38">
+        <v>-0.00689449267597817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04524802843497611</v>
+        <v>0.0393111578944742</v>
       </c>
       <c r="C39">
-        <v>-0.07283346309162179</v>
+        <v>0.06861420638188508</v>
       </c>
       <c r="D39">
-        <v>-0.02471239360594464</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05233945953197882</v>
+      </c>
+      <c r="E39">
+        <v>-0.03422186398971594</v>
+      </c>
+      <c r="F39">
+        <v>0.08718341554302396</v>
+      </c>
+      <c r="G39">
+        <v>0.01170606888768354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01572961768817223</v>
+        <v>0.01506794568285908</v>
       </c>
       <c r="C40">
-        <v>-0.03987366811841792</v>
+        <v>0.03987115806601261</v>
       </c>
       <c r="D40">
-        <v>-0.03377788866286328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03590628522672251</v>
+      </c>
+      <c r="E40">
+        <v>-0.08574080299310599</v>
+      </c>
+      <c r="F40">
+        <v>0.06923451715665839</v>
+      </c>
+      <c r="G40">
+        <v>-0.04515301016665526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01711450832325882</v>
+        <v>0.01774588371706535</v>
       </c>
       <c r="C41">
-        <v>-0.007864355212121522</v>
+        <v>0.007110113820275646</v>
       </c>
       <c r="D41">
-        <v>0.007081668099076933</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01275222964862645</v>
+      </c>
+      <c r="E41">
+        <v>-0.04964420382707456</v>
+      </c>
+      <c r="F41">
+        <v>0.06345453755770054</v>
+      </c>
+      <c r="G41">
+        <v>-0.004552800663208676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0001794480610671913</v>
+        <v>-0.0001243216173647658</v>
       </c>
       <c r="C42">
-        <v>-0.001091199342920626</v>
+        <v>0.0005808733299822021</v>
       </c>
       <c r="D42">
-        <v>0.00242527002857722</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.00135013484370293</v>
+      </c>
+      <c r="E42">
+        <v>0.00469767632361108</v>
+      </c>
+      <c r="F42">
+        <v>-0.001432910624764411</v>
+      </c>
+      <c r="G42">
+        <v>-0.00220952597820145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03653445300924515</v>
+        <v>0.02860254304753322</v>
       </c>
       <c r="C43">
-        <v>-0.02486022145979897</v>
+        <v>0.02217242260177931</v>
       </c>
       <c r="D43">
-        <v>-0.01474100079710652</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03843087908019278</v>
+      </c>
+      <c r="E43">
+        <v>-0.06134861445987291</v>
+      </c>
+      <c r="F43">
+        <v>0.07353370462202026</v>
+      </c>
+      <c r="G43">
+        <v>-0.02474097080289743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01870360695056888</v>
+        <v>0.01387840348139731</v>
       </c>
       <c r="C44">
-        <v>-0.05892177300323461</v>
+        <v>0.05291196148133354</v>
       </c>
       <c r="D44">
-        <v>-0.01592750766898459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03825865980924629</v>
+      </c>
+      <c r="E44">
+        <v>-0.07673746645549077</v>
+      </c>
+      <c r="F44">
+        <v>0.07446047666468582</v>
+      </c>
+      <c r="G44">
+        <v>0.001790750260409183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.005683293746951396</v>
+        <v>0.007486702365979936</v>
       </c>
       <c r="C46">
-        <v>-0.02318543627546429</v>
+        <v>0.02612041410672929</v>
       </c>
       <c r="D46">
-        <v>0.02591182216613448</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009249222715895428</v>
+      </c>
+      <c r="E46">
+        <v>-0.04755263883650635</v>
+      </c>
+      <c r="F46">
+        <v>0.09900974680524469</v>
+      </c>
+      <c r="G46">
+        <v>-0.002848991561166401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08421035848058443</v>
+        <v>0.08681859671487734</v>
       </c>
       <c r="C47">
-        <v>-0.06395763807681347</v>
+        <v>0.07987470602092095</v>
       </c>
       <c r="D47">
-        <v>0.02916037276825281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0200345703789067</v>
+      </c>
+      <c r="E47">
+        <v>-0.06305576780578012</v>
+      </c>
+      <c r="F47">
+        <v>0.07136235904142743</v>
+      </c>
+      <c r="G47">
+        <v>-0.05329810854325134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01891277851839838</v>
+        <v>0.01574329532951568</v>
       </c>
       <c r="C48">
-        <v>-0.01401047778403066</v>
+        <v>0.0176584167571804</v>
       </c>
       <c r="D48">
-        <v>0.01617082552316444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0144703623079612</v>
+      </c>
+      <c r="E48">
+        <v>-0.05869579173920586</v>
+      </c>
+      <c r="F48">
+        <v>0.08843745741663131</v>
+      </c>
+      <c r="G48">
+        <v>-0.01142904926744696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08301366837917254</v>
+        <v>0.07074693209044473</v>
       </c>
       <c r="C50">
-        <v>-0.0699718648128947</v>
+        <v>0.07259022979793421</v>
       </c>
       <c r="D50">
-        <v>0.03608477802965179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.008111723887701726</v>
+      </c>
+      <c r="E50">
+        <v>-0.06470211155031343</v>
+      </c>
+      <c r="F50">
+        <v>0.05764678367127495</v>
+      </c>
+      <c r="G50">
+        <v>-0.07406288773853874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01690385892843159</v>
+        <v>0.01056982623214802</v>
       </c>
       <c r="C51">
-        <v>-0.0470131430547085</v>
+        <v>0.03433950673531412</v>
       </c>
       <c r="D51">
-        <v>-0.02099590517482803</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04829828976007317</v>
+      </c>
+      <c r="E51">
+        <v>-0.03821462724592614</v>
+      </c>
+      <c r="F51">
+        <v>0.07730110504060163</v>
+      </c>
+      <c r="G51">
+        <v>0.01728350322336525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08481755697170895</v>
+        <v>0.09364994258461201</v>
       </c>
       <c r="C53">
-        <v>-0.07187224579193605</v>
+        <v>0.08693427813406829</v>
       </c>
       <c r="D53">
-        <v>0.04090781099738686</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04338033067678954</v>
+      </c>
+      <c r="E53">
+        <v>-0.05942271866078521</v>
+      </c>
+      <c r="F53">
+        <v>0.0810269818471565</v>
+      </c>
+      <c r="G53">
+        <v>-0.06566104529672709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03179506447213056</v>
+        <v>0.02750947558612062</v>
       </c>
       <c r="C54">
-        <v>-0.02274992394101506</v>
+        <v>0.02525254381032135</v>
       </c>
       <c r="D54">
-        <v>0.006129693011582739</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02877522361727014</v>
+      </c>
+      <c r="E54">
+        <v>-0.04805003125639126</v>
+      </c>
+      <c r="F54">
+        <v>0.0983299050866458</v>
+      </c>
+      <c r="G54">
+        <v>-0.00987264872495445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07723346285568791</v>
+        <v>0.08494901438693178</v>
       </c>
       <c r="C55">
-        <v>-0.05567881047637547</v>
+        <v>0.07052910700327156</v>
       </c>
       <c r="D55">
-        <v>0.04777916788971225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04979661525727157</v>
+      </c>
+      <c r="E55">
+        <v>-0.04706408330677574</v>
+      </c>
+      <c r="F55">
+        <v>0.05791202714341774</v>
+      </c>
+      <c r="G55">
+        <v>-0.05343036283452937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1491551770368254</v>
+        <v>0.1465954220000321</v>
       </c>
       <c r="C56">
-        <v>-0.08960083461158569</v>
+        <v>0.1044690413145802</v>
       </c>
       <c r="D56">
-        <v>0.05198220156170145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0542977193214159</v>
+      </c>
+      <c r="E56">
+        <v>-0.04915318624254448</v>
+      </c>
+      <c r="F56">
+        <v>0.04084082534166886</v>
+      </c>
+      <c r="G56">
+        <v>-0.06004865618952691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.001205146700696409</v>
+        <v>0.0003816612626634741</v>
       </c>
       <c r="C57">
-        <v>-0.002287468533875798</v>
+        <v>0.001592272922428515</v>
       </c>
       <c r="D57">
-        <v>-0.01703487221521419</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01243196635741134</v>
+      </c>
+      <c r="E57">
+        <v>-0.009614526926824365</v>
+      </c>
+      <c r="F57">
+        <v>0.005436541850011942</v>
+      </c>
+      <c r="G57">
+        <v>-0.003338143412296579</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06475852330067569</v>
+        <v>0.02810738933995055</v>
       </c>
       <c r="C58">
-        <v>-0.01912011536529865</v>
+        <v>0.03675866568755244</v>
       </c>
       <c r="D58">
-        <v>-0.7339699844775416</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4075100403807281</v>
+      </c>
+      <c r="E58">
+        <v>-0.6619426577016676</v>
+      </c>
+      <c r="F58">
+        <v>-0.5467950627661197</v>
+      </c>
+      <c r="G58">
+        <v>0.07319687045105441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1284085552721314</v>
+        <v>0.1452409721976981</v>
       </c>
       <c r="C59">
-        <v>0.2039161774687832</v>
+        <v>-0.1872561507982473</v>
       </c>
       <c r="D59">
-        <v>-0.01837088157552018</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02969052720737565</v>
+      </c>
+      <c r="E59">
+        <v>-0.02725113607163121</v>
+      </c>
+      <c r="F59">
+        <v>0.02151986632787681</v>
+      </c>
+      <c r="G59">
+        <v>0.02848988503562203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3129945585490759</v>
+        <v>0.2835185003986788</v>
       </c>
       <c r="C60">
-        <v>-0.08148772550769136</v>
+        <v>0.09833929221009639</v>
       </c>
       <c r="D60">
-        <v>-0.1193120679056869</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2248571175681797</v>
+      </c>
+      <c r="E60">
+        <v>0.2647492191605447</v>
+      </c>
+      <c r="F60">
+        <v>-0.08894291920538849</v>
+      </c>
+      <c r="G60">
+        <v>-0.04321744990682558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0438870337387828</v>
+        <v>0.04077088828428063</v>
       </c>
       <c r="C61">
-        <v>-0.06230422608027399</v>
+        <v>0.06259626153996876</v>
       </c>
       <c r="D61">
-        <v>-0.01348656288092933</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04473417425266066</v>
+      </c>
+      <c r="E61">
+        <v>-0.03803648652283949</v>
+      </c>
+      <c r="F61">
+        <v>0.07697539135819909</v>
+      </c>
+      <c r="G61">
+        <v>-0.01402452595770368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01638985347939221</v>
+        <v>0.01497147579449759</v>
       </c>
       <c r="C63">
-        <v>-0.0354802683363309</v>
+        <v>0.03267757029255938</v>
       </c>
       <c r="D63">
-        <v>0.008121255776428605</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0211359390536945</v>
+      </c>
+      <c r="E63">
+        <v>-0.04957376687293174</v>
+      </c>
+      <c r="F63">
+        <v>0.06925422841690625</v>
+      </c>
+      <c r="G63">
+        <v>-0.03026825591327911</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05095423892917345</v>
+        <v>0.05567062033617164</v>
       </c>
       <c r="C64">
-        <v>-0.04082542174307973</v>
+        <v>0.05557809047416842</v>
       </c>
       <c r="D64">
-        <v>0.008764002821514658</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005442323768840325</v>
+      </c>
+      <c r="E64">
+        <v>-0.03120163688410395</v>
+      </c>
+      <c r="F64">
+        <v>0.08197367715839377</v>
+      </c>
+      <c r="G64">
+        <v>-0.01214972336555383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.09071185223669551</v>
+        <v>0.0690320947531502</v>
       </c>
       <c r="C65">
-        <v>-0.02588223149365727</v>
+        <v>0.03179739392549856</v>
       </c>
       <c r="D65">
-        <v>-0.04659610405658129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08420719152132329</v>
+      </c>
+      <c r="E65">
+        <v>-0.04365814537845551</v>
+      </c>
+      <c r="F65">
+        <v>0.008284398773269438</v>
+      </c>
+      <c r="G65">
+        <v>-0.001079717420338549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06539598940814638</v>
+        <v>0.05205420755816861</v>
       </c>
       <c r="C66">
-        <v>-0.1008040571327037</v>
+        <v>0.0904198318651316</v>
       </c>
       <c r="D66">
-        <v>-0.04259404627575548</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07985194226358301</v>
+      </c>
+      <c r="E66">
+        <v>-0.04185540895310323</v>
+      </c>
+      <c r="F66">
+        <v>0.08911638116838064</v>
+      </c>
+      <c r="G66">
+        <v>-0.005891628748602797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05274967242166129</v>
+        <v>0.04602670761194087</v>
       </c>
       <c r="C67">
-        <v>-0.03288422192092093</v>
+        <v>0.03116563515386213</v>
       </c>
       <c r="D67">
-        <v>0.009765193784168647</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01151365133705687</v>
+      </c>
+      <c r="E67">
+        <v>-0.02473704482024736</v>
+      </c>
+      <c r="F67">
+        <v>0.05126733660272517</v>
+      </c>
+      <c r="G67">
+        <v>-0.01350180841521863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1129848595047869</v>
+        <v>0.1506389700978506</v>
       </c>
       <c r="C68">
-        <v>0.2896592235496003</v>
+        <v>-0.2512322893668364</v>
       </c>
       <c r="D68">
-        <v>0.01169371199967666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02084532949995254</v>
+      </c>
+      <c r="E68">
+        <v>-0.0419655263840256</v>
+      </c>
+      <c r="F68">
+        <v>0.01473660480900841</v>
+      </c>
+      <c r="G68">
+        <v>-0.01102187122225427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09136616640751748</v>
+        <v>0.08672322113948706</v>
       </c>
       <c r="C69">
-        <v>-0.06370025021989489</v>
+        <v>0.08631960450501744</v>
       </c>
       <c r="D69">
-        <v>0.04218117320403802</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0109275347578348</v>
+      </c>
+      <c r="E69">
+        <v>-0.04720505693573041</v>
+      </c>
+      <c r="F69">
+        <v>0.08980520439029506</v>
+      </c>
+      <c r="G69">
+        <v>-0.03109817391928492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.108194770437023</v>
+        <v>0.1428064098740174</v>
       </c>
       <c r="C71">
-        <v>0.2509616972734705</v>
+        <v>-0.2335391084493759</v>
       </c>
       <c r="D71">
-        <v>-0.01720922423664814</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01029727285809241</v>
+      </c>
+      <c r="E71">
+        <v>-0.06671836293220768</v>
+      </c>
+      <c r="F71">
+        <v>0.05416530738445156</v>
+      </c>
+      <c r="G71">
+        <v>-0.03627999769022334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0904957558469567</v>
+        <v>0.09714098402606294</v>
       </c>
       <c r="C72">
-        <v>-0.0448788792126074</v>
+        <v>0.05506959510276192</v>
       </c>
       <c r="D72">
-        <v>0.0004493059078656331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02412038325254772</v>
+      </c>
+      <c r="E72">
+        <v>-0.02427262831806817</v>
+      </c>
+      <c r="F72">
+        <v>0.07289423542182574</v>
+      </c>
+      <c r="G72">
+        <v>-0.02998594653177025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4203401830641426</v>
+        <v>0.3475115029042228</v>
       </c>
       <c r="C73">
-        <v>-0.05876010579279297</v>
+        <v>0.08112854005240099</v>
       </c>
       <c r="D73">
-        <v>-0.3216834721000199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4727104615680548</v>
+      </c>
+      <c r="E73">
+        <v>0.4724375815191633</v>
+      </c>
+      <c r="F73">
+        <v>-0.2464338022971342</v>
+      </c>
+      <c r="G73">
+        <v>-0.0951862345278984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1128464906227619</v>
+        <v>0.1107602360450262</v>
       </c>
       <c r="C74">
-        <v>-0.09714260707426185</v>
+        <v>0.09889310334508283</v>
       </c>
       <c r="D74">
-        <v>0.02816423525221975</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03322570912690596</v>
+      </c>
+      <c r="E74">
+        <v>-0.06409057445409584</v>
+      </c>
+      <c r="F74">
+        <v>0.0462668263857135</v>
+      </c>
+      <c r="G74">
+        <v>-0.07568950553306937</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2538707183632521</v>
+        <v>0.2565169649134755</v>
       </c>
       <c r="C75">
-        <v>-0.1007468277273819</v>
+        <v>0.1323753034407743</v>
       </c>
       <c r="D75">
-        <v>0.09382874475364789</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1337695130891493</v>
+      </c>
+      <c r="E75">
+        <v>-0.0670505522812531</v>
+      </c>
+      <c r="F75">
+        <v>0.006898316048192712</v>
+      </c>
+      <c r="G75">
+        <v>-0.07601950823240354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1165370603371308</v>
+        <v>0.1281076860818814</v>
       </c>
       <c r="C76">
-        <v>-0.08824086372036874</v>
+        <v>0.1012643012416241</v>
       </c>
       <c r="D76">
-        <v>0.04565758099292958</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0605734052688944</v>
+      </c>
+      <c r="E76">
+        <v>-0.07162639558373458</v>
+      </c>
+      <c r="F76">
+        <v>0.06127415003285064</v>
+      </c>
+      <c r="G76">
+        <v>-0.06417546282358345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07820465606270441</v>
+        <v>0.06255918569274656</v>
       </c>
       <c r="C77">
-        <v>-0.05361970320295118</v>
+        <v>0.07062655262243879</v>
       </c>
       <c r="D77">
-        <v>-0.0635880476801671</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06452539992704798</v>
+      </c>
+      <c r="E77">
+        <v>-0.09285032631880683</v>
+      </c>
+      <c r="F77">
+        <v>0.1119673222038883</v>
+      </c>
+      <c r="G77">
+        <v>0.1330647104628291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.05013344860820848</v>
+        <v>0.04347957099855931</v>
       </c>
       <c r="C78">
-        <v>-0.04230105756597347</v>
+        <v>0.05709325522417141</v>
       </c>
       <c r="D78">
-        <v>-0.02662297523702676</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0709154309525666</v>
+      </c>
+      <c r="E78">
+        <v>-0.04731758810027779</v>
+      </c>
+      <c r="F78">
+        <v>0.09545562163495371</v>
+      </c>
+      <c r="G78">
+        <v>-0.006570674063440256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02552611882649315</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03846157053690701</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06281290625885554</v>
+      </c>
+      <c r="E79">
+        <v>-0.0531881038772223</v>
+      </c>
+      <c r="F79">
+        <v>0.03461488493802795</v>
+      </c>
+      <c r="G79">
+        <v>-0.06766250175486059</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0469445373642418</v>
+        <v>0.03462152149388421</v>
       </c>
       <c r="C80">
-        <v>-0.05015621075702349</v>
+        <v>0.05533791472994963</v>
       </c>
       <c r="D80">
-        <v>-0.03349432778643333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04470541357608118</v>
+      </c>
+      <c r="E80">
+        <v>-0.01617357947839694</v>
+      </c>
+      <c r="F80">
+        <v>0.03460590588253797</v>
+      </c>
+      <c r="G80">
+        <v>0.045877126416581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1435403852640269</v>
+        <v>0.140493902536461</v>
       </c>
       <c r="C81">
-        <v>-0.07016381918430636</v>
+        <v>0.09634996706179232</v>
       </c>
       <c r="D81">
-        <v>0.06370885166361476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1017536858665831</v>
+      </c>
+      <c r="E81">
+        <v>-0.07997013123339421</v>
+      </c>
+      <c r="F81">
+        <v>0.005221071876835431</v>
+      </c>
+      <c r="G81">
+        <v>-0.05549522086059221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1592101498241507</v>
+        <v>0.2015584114715401</v>
       </c>
       <c r="C82">
-        <v>-0.0589603565568747</v>
+        <v>0.1372858752209071</v>
       </c>
       <c r="D82">
-        <v>0.1556051163533035</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2370588229108596</v>
+      </c>
+      <c r="E82">
+        <v>0.0004379207361489614</v>
+      </c>
+      <c r="F82">
+        <v>0.09436874171771185</v>
+      </c>
+      <c r="G82">
+        <v>-0.04303980448431242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03714043164289391</v>
+        <v>0.02806132632653862</v>
       </c>
       <c r="C83">
-        <v>-0.02378026384181705</v>
+        <v>0.04191293760937959</v>
       </c>
       <c r="D83">
-        <v>-0.03723327895412067</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03406343058113197</v>
+      </c>
+      <c r="E83">
+        <v>-0.02160520835472974</v>
+      </c>
+      <c r="F83">
+        <v>0.04373399296498182</v>
+      </c>
+      <c r="G83">
+        <v>0.01988258348305306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2202301367570417</v>
+        <v>0.2038446184533607</v>
       </c>
       <c r="C85">
-        <v>-0.1002964540567757</v>
+        <v>0.1195625828674144</v>
       </c>
       <c r="D85">
-        <v>0.1158256932348998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1003860962106049</v>
+      </c>
+      <c r="E85">
+        <v>0.005031692582071242</v>
+      </c>
+      <c r="F85">
+        <v>-0.01949296347027532</v>
+      </c>
+      <c r="G85">
+        <v>-0.1286281537861317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01077411721684945</v>
+        <v>0.01117705323715896</v>
       </c>
       <c r="C86">
-        <v>-0.03659007143449242</v>
+        <v>0.03184610959098961</v>
       </c>
       <c r="D86">
-        <v>-0.04604736073293442</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06563285241702663</v>
+      </c>
+      <c r="E86">
+        <v>-0.06496013359416594</v>
+      </c>
+      <c r="F86">
+        <v>0.1245213294842884</v>
+      </c>
+      <c r="G86">
+        <v>0.008136447814443936</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02298721577950361</v>
+        <v>0.02161940866990482</v>
       </c>
       <c r="C87">
-        <v>-0.01998259999351463</v>
+        <v>0.02161729022807669</v>
       </c>
       <c r="D87">
-        <v>-0.09672504250728903</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08860034400342648</v>
+      </c>
+      <c r="E87">
+        <v>-0.1113775564051152</v>
+      </c>
+      <c r="F87">
+        <v>0.07375452807060226</v>
+      </c>
+      <c r="G87">
+        <v>0.03526651302418417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1046061553460565</v>
+        <v>0.09169654135223597</v>
       </c>
       <c r="C88">
-        <v>-0.07142050619666881</v>
+        <v>0.06312219136421811</v>
       </c>
       <c r="D88">
-        <v>0.02977175463304714</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.006938142676033051</v>
+      </c>
+      <c r="E88">
+        <v>-0.04264696376603349</v>
+      </c>
+      <c r="F88">
+        <v>0.07135252810488779</v>
+      </c>
+      <c r="G88">
+        <v>0.02699621167766168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1694410774429407</v>
+        <v>0.221841133236003</v>
       </c>
       <c r="C89">
-        <v>0.3805423185187607</v>
+        <v>-0.3787452127910063</v>
       </c>
       <c r="D89">
-        <v>0.007327749231076503</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.005936026873531224</v>
+      </c>
+      <c r="E89">
+        <v>-0.06326070213090677</v>
+      </c>
+      <c r="F89">
+        <v>0.07616491985341967</v>
+      </c>
+      <c r="G89">
+        <v>0.06079618066226261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.167544576000363</v>
+        <v>0.2010006705132574</v>
       </c>
       <c r="C90">
-        <v>0.3468519779002009</v>
+        <v>-0.3146293187901796</v>
       </c>
       <c r="D90">
-        <v>0.02845325952913386</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01653657734307739</v>
+      </c>
+      <c r="E90">
+        <v>-0.07033919913570325</v>
+      </c>
+      <c r="F90">
+        <v>0.03972369985285221</v>
+      </c>
+      <c r="G90">
+        <v>0.01097677001175318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1918136416174339</v>
+        <v>0.185941858614236</v>
       </c>
       <c r="C91">
-        <v>-0.1178384541804242</v>
+        <v>0.1403925457371006</v>
       </c>
       <c r="D91">
-        <v>0.08431600202836842</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1116049235470749</v>
+      </c>
+      <c r="E91">
+        <v>-0.0594748580718044</v>
+      </c>
+      <c r="F91">
+        <v>0.03023072074422446</v>
+      </c>
+      <c r="G91">
+        <v>-0.06080075499057775</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1608654925960801</v>
+        <v>0.1828719389512537</v>
       </c>
       <c r="C92">
-        <v>0.2936534377778686</v>
+        <v>-0.2831797581300641</v>
       </c>
       <c r="D92">
-        <v>0.0180741421618429</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006275970613317482</v>
+      </c>
+      <c r="E92">
+        <v>-0.0725550281269205</v>
+      </c>
+      <c r="F92">
+        <v>0.07991060368527396</v>
+      </c>
+      <c r="G92">
+        <v>0.006156626133171242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1909660964065424</v>
+        <v>0.2253258447771515</v>
       </c>
       <c r="C93">
-        <v>0.347983118664964</v>
+        <v>-0.3193191914627272</v>
       </c>
       <c r="D93">
-        <v>0.02069015794018153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.002659581424773244</v>
+      </c>
+      <c r="E93">
+        <v>-0.05282581649045347</v>
+      </c>
+      <c r="F93">
+        <v>0.03843706012671384</v>
+      </c>
+      <c r="G93">
+        <v>-0.02805354375584528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3349544784870781</v>
+        <v>0.341646265764141</v>
       </c>
       <c r="C94">
-        <v>-0.1358376642783211</v>
+        <v>0.182257440115916</v>
       </c>
       <c r="D94">
-        <v>0.4251263001128685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4938506127379068</v>
+      </c>
+      <c r="E94">
+        <v>-0.04574620407810884</v>
+      </c>
+      <c r="F94">
+        <v>-0.4357332184155812</v>
+      </c>
+      <c r="G94">
+        <v>0.3433545092900607</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1134091059862259</v>
+        <v>0.08545916275998228</v>
       </c>
       <c r="C95">
-        <v>-0.07648010408580708</v>
+        <v>0.06815505770540081</v>
       </c>
       <c r="D95">
-        <v>-0.1109761466947755</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1709767189721058</v>
+      </c>
+      <c r="E95">
+        <v>0.09635415130477308</v>
+      </c>
+      <c r="F95">
+        <v>0.240095273668784</v>
+      </c>
+      <c r="G95">
+        <v>0.8594086805538628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1983607663976405</v>
+        <v>0.1877846579631924</v>
       </c>
       <c r="C98">
-        <v>-0.01938679226893311</v>
+        <v>0.04452722155238957</v>
       </c>
       <c r="D98">
-        <v>-0.1191535045371528</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1877600391496944</v>
+      </c>
+      <c r="E98">
+        <v>0.1490468503799847</v>
+      </c>
+      <c r="F98">
+        <v>-0.03412039628842944</v>
+      </c>
+      <c r="G98">
+        <v>-0.1009157481712342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009083106271394093</v>
+        <v>0.005779840531011906</v>
       </c>
       <c r="C101">
-        <v>-0.02804833637021164</v>
+        <v>0.0272351385760229</v>
       </c>
       <c r="D101">
-        <v>0.01980297908720526</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01858157658351278</v>
+      </c>
+      <c r="E101">
+        <v>-0.04040879648811643</v>
+      </c>
+      <c r="F101">
+        <v>0.08831147790119144</v>
+      </c>
+      <c r="G101">
+        <v>-0.006997477090640122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1233705390639263</v>
+        <v>0.1240580679745279</v>
       </c>
       <c r="C102">
-        <v>-0.07099171872923317</v>
+        <v>0.09999016370864423</v>
       </c>
       <c r="D102">
-        <v>0.03149089414777162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04887239168755512</v>
+      </c>
+      <c r="E102">
+        <v>0.007820712757942357</v>
+      </c>
+      <c r="F102">
+        <v>0.04244297858947548</v>
+      </c>
+      <c r="G102">
+        <v>-0.02406413235940031</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
